--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdPfParms.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdPfParms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4A514-4F9C-4C8F-9F75-E9B6E6F86053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54505D0C-B9E9-4F2F-A0B5-9288FD950AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -253,12 +249,15 @@
 其他為空白1位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,7 +443,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -465,9 +464,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,7 +476,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -507,13 +503,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,15 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -562,9 +543,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,9 +583,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,26 +618,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,26 +653,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,109 +832,109 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.44140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" style="19" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="35"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="37" t="s">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="34" t="s">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1000,184 +947,183 @@
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="95.4" customHeight="1">
-      <c r="A9" s="16">
+    <row r="9" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="C10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="117.6" customHeight="1">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="26">
+        <v>6</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E12" s="27">
+        <v>6</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="27">
+        <v>6</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="26">
+        <v>6</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="29">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="C16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1">
-      <c r="A11" s="16">
-        <v>3</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="E16" s="26"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="26">
         <v>6</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="32.4">
-      <c r="A12" s="16">
-        <v>4</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="30">
-        <v>6</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="38.4" customHeight="1">
-      <c r="A13" s="16">
-        <v>5</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="30">
-        <v>6</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="29">
-        <v>6</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16">
-        <v>9</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="29">
-        <v>6</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1204,7 +1150,7 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
@@ -1212,7 +1158,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,26 +1169,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
